--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,6 +252,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -559,10 +560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -707,11 +708,11 @@
         <f t="shared" si="1"/>
         <v>3592.0200000000004</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="26">
         <f>SUM(F6,F7)</f>
         <v>4213.42</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>4148</v>
       </c>
     </row>
@@ -734,8 +735,8 @@
         <f t="shared" si="1"/>
         <v>621.4</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -758,11 +759,11 @@
         <f t="shared" ref="F8:F13" si="3">D8*E8</f>
         <v>1636.0600000000002</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="26">
         <f>SUM(F8,F9)</f>
         <v>1925.2500000000002</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <v>1990.67</v>
       </c>
     </row>
@@ -785,8 +786,8 @@
         <f t="shared" si="3"/>
         <v>289.19</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -809,11 +810,11 @@
         <f t="shared" si="3"/>
         <v>1636.0600000000002</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="26">
         <f>SUM(F10,F11)</f>
         <v>1925.2500000000002</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>1990.67</v>
       </c>
     </row>
@@ -836,8 +837,8 @@
         <f t="shared" si="3"/>
         <v>289.19</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -860,11 +861,11 @@
         <f t="shared" si="3"/>
         <v>404.1</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="26">
         <f>SUM(F12,F13)</f>
         <v>452.70000000000005</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <v>459.1</v>
       </c>
     </row>
@@ -1138,25 +1139,76 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="16">
+        <v>43955</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="18">
+        <v>9537</v>
+      </c>
+      <c r="D24" s="17">
+        <f>SUM(C24,-C22)</f>
+        <v>308</v>
+      </c>
+      <c r="E24" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" ref="F24:F25" si="7">D24*E24</f>
+        <v>1382.92</v>
+      </c>
+      <c r="G24" s="25">
+        <f>SUM(F24,F25)</f>
+        <v>1715.8300000000002</v>
+      </c>
+      <c r="H24" s="25">
+        <v>1715.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3488</v>
+      </c>
+      <c r="D25" s="17">
+        <f>SUM(C25,-C23)</f>
+        <v>137</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="7"/>
+        <v>332.91</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="25">
-        <f>SUM(G4:G23)</f>
-        <v>21599.440000000006</v>
-      </c>
-      <c r="H24" s="25">
-        <f>SUM(H4:H23)</f>
-        <v>21723.380000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="25">
+        <f>SUM(G4:G25)</f>
+        <v>23315.270000000008</v>
+      </c>
+      <c r="H26" s="25">
+        <f>SUM(H4:H25)</f>
+        <v>23439.210000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="25">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="2"/>
+      <c r="H27" s="25">
+        <f>SUM(H26,-G26)</f>
         <v>123.93999999999869</v>
       </c>
     </row>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -560,10 +560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1047,14 +1047,14 @@
         <v>8872</v>
       </c>
       <c r="D20" s="17">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" ref="D20:D27" si="5">SUM(C20,-C18)</f>
         <v>439</v>
       </c>
       <c r="E20" s="15">
         <v>4.49</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
         <v>1971.1100000000001</v>
       </c>
       <c r="G20" s="25">
@@ -1074,14 +1074,14 @@
         <v>3184</v>
       </c>
       <c r="D21" s="17">
-        <f>SUM(C21,-C19)</f>
+        <f t="shared" si="5"/>
         <v>227</v>
       </c>
       <c r="E21" s="15">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>551.61</v>
       </c>
       <c r="G21" s="25"/>
@@ -1098,14 +1098,14 @@
         <v>9229</v>
       </c>
       <c r="D22" s="17">
-        <f>SUM(C22,-C20)</f>
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
       <c r="E22" s="15">
         <v>4.49</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" ref="F22:F23" si="6">D22*E22</f>
+        <f t="shared" ref="F22:F23" si="7">D22*E22</f>
         <v>1602.93</v>
       </c>
       <c r="G22" s="25">
@@ -1125,14 +1125,14 @@
         <v>3351</v>
       </c>
       <c r="D23" s="17">
-        <f>SUM(C23,-C21)</f>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="E23" s="15">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>405.81</v>
       </c>
       <c r="G23" s="25"/>
@@ -1149,14 +1149,14 @@
         <v>9537</v>
       </c>
       <c r="D24" s="17">
-        <f>SUM(C24,-C22)</f>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="E24" s="15">
         <v>4.49</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" ref="F24:F25" si="7">D24*E24</f>
+        <f t="shared" ref="F24:F25" si="8">D24*E24</f>
         <v>1382.92</v>
       </c>
       <c r="G24" s="25">
@@ -1176,39 +1176,90 @@
         <v>3488</v>
       </c>
       <c r="D25" s="17">
-        <f>SUM(C25,-C23)</f>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="E25" s="15">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>332.91</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="16">
+        <v>44014</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>9792</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="E26" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" ref="F26:F27" si="9">D26*E26</f>
+        <v>1144.95</v>
+      </c>
+      <c r="G26" s="25">
+        <f>SUM(F26,F27)</f>
+        <v>1404.96</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1404.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3595</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="E27" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="9"/>
+        <v>260.01</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="25">
-        <f>SUM(G4:G25)</f>
-        <v>23315.270000000008</v>
-      </c>
-      <c r="H26" s="25">
-        <f>SUM(H4:H25)</f>
-        <v>23439.210000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="25">
+        <f>SUM(G4:G27)</f>
+        <v>24720.230000000007</v>
+      </c>
+      <c r="H28" s="25">
+        <f>SUM(H4:H27)</f>
+        <v>24844.170000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="25">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="2"/>
+      <c r="H29" s="25">
+        <f>SUM(H28,-G28)</f>
         <v>123.93999999999869</v>
       </c>
     </row>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -560,10 +560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1241,25 +1241,76 @@
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="16">
+        <v>44119</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18">
+        <v>10081</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" ref="D28:D29" si="10">SUM(C28,-C26)</f>
+        <v>289</v>
+      </c>
+      <c r="E28" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" ref="F28:F29" si="11">D28*E28</f>
+        <v>1361.19</v>
+      </c>
+      <c r="G28" s="25">
+        <f>SUM(F28,F29)</f>
+        <v>1590.69</v>
+      </c>
+      <c r="H28" s="25">
+        <v>1590.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18">
+        <v>3685</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="11"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="25">
-        <f>SUM(G4:G27)</f>
-        <v>24720.230000000007</v>
-      </c>
-      <c r="H28" s="25">
-        <f>SUM(H4:H27)</f>
-        <v>24844.170000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="G30" s="25">
+        <f>SUM(G4:G29)</f>
+        <v>26310.920000000006</v>
+      </c>
+      <c r="H30" s="25">
+        <f>SUM(H4:H29)</f>
+        <v>26434.860000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="25">
-        <f>SUM(H28,-G28)</f>
+      <c r="G31" s="2"/>
+      <c r="H31" s="25">
+        <f>SUM(H30,-G30)</f>
         <v>123.93999999999869</v>
       </c>
     </row>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,26 +701,77 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="6">
+        <v>44214</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>11404</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>627</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>2953.17</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>3707.9700000000003</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3534.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4301</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="7"/>
+        <v>754.8</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>7089.8099999999995</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>6898.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>10797.779999999999</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>10433.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
-        <v>-191.15999999999985</v>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>-364.61999999999898</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,26 +752,128 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="6">
+        <v>44257</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11977</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>573</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>2698.83</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>3394.98</v>
+      </c>
+      <c r="H12" s="11">
+        <v>3236.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4574</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="8"/>
+        <v>273</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="9"/>
+        <v>696.15</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44305</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12189</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>212</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>998.52</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>1245.8699999999999</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1187.5899999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4671</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="11"/>
+        <v>247.35</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>10797.779999999999</v>
-      </c>
-      <c r="H12" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>10433.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="G16" s="11">
+        <f>SUM(G2:G15)</f>
+        <v>15438.629999999997</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H2:H15)</f>
+        <v>14856.91</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
-        <v>-364.61999999999898</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
+        <v>-581.71999999999753</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -854,26 +854,77 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="6">
+        <v>44354</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>12212</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>23</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>108.33</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>110.88</v>
+      </c>
+      <c r="H16" s="11">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4672</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
-        <f>SUM(G2:G15)</f>
-        <v>15438.629999999997</v>
-      </c>
-      <c r="H16" s="11">
-        <f>SUM(H2:H15)</f>
-        <v>14856.91</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>15549.509999999997</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>14962.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
-        <v>-581.71999999999753</v>
+      <c r="G19" s="2"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
+        <v>-586.899999999996</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,26 +905,103 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="6">
+        <v>44396</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>12230</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>89.28</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>97.320000000000007</v>
+      </c>
+      <c r="H18" s="11">
+        <v>88.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4675</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="15"/>
+        <v>8.0400000000000009</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44403</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>596.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>15549.509999999997</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>14962.61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G21" s="11">
+        <f>SUM(G2:G20)</f>
+        <v>15646.829999999996</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(H2:H20)</f>
+        <v>15646.830000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
-        <v>-586.899999999996</v>
+      <c r="G22" s="2"/>
+      <c r="H22" s="11">
+        <f>SUM(H21,-G21)</f>
+        <v>5.4569682106375694E-12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -982,26 +982,77 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="A21" s="6">
+        <v>44461</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12294</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUM(C21,-C18)</f>
+        <v>64</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21:F22" si="16">D21*E21</f>
+        <v>317.44</v>
+      </c>
+      <c r="G21" s="11">
+        <f>SUM(F21,F22)</f>
+        <v>360.32</v>
+      </c>
+      <c r="H21" s="11">
+        <v>326.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4691</v>
+      </c>
+      <c r="D22" s="7">
+        <f>SUM(C22,-C19)</f>
+        <v>16</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="16"/>
+        <v>42.88</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="11">
-        <f>SUM(G2:G20)</f>
-        <v>15646.829999999996</v>
-      </c>
-      <c r="H21" s="11">
-        <f>SUM(H2:H20)</f>
-        <v>15646.830000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="G23" s="11">
+        <f>SUM(G2:G22)</f>
+        <v>16007.149999999996</v>
+      </c>
+      <c r="H23" s="11">
+        <f>SUM(H2:H22)</f>
+        <v>15973.070000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="11">
-        <f>SUM(H21,-G21)</f>
-        <v>5.4569682106375694E-12</v>
+      <c r="G24" s="2"/>
+      <c r="H24" s="11">
+        <f>SUM(H23,-G23)</f>
+        <v>-34.07999999999447</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/165ee.xlsx
+++ b/sputnik/personal/ee/165ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1033,26 +1033,77 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="A23" s="6">
+        <v>44508</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12375</v>
+      </c>
+      <c r="D23" s="7">
+        <f>SUM(C23,-C21)</f>
+        <v>81</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" ref="F23:F24" si="17">D23*E23</f>
+        <v>401.76</v>
+      </c>
+      <c r="G23" s="11">
+        <f>SUM(F23,F24)</f>
+        <v>474.12</v>
+      </c>
+      <c r="H23" s="11">
+        <v>429.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4718</v>
+      </c>
+      <c r="D24" s="7">
+        <f>SUM(C24,-C22)</f>
+        <v>27</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="17"/>
+        <v>72.36</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11">
-        <f>SUM(G2:G22)</f>
-        <v>16007.149999999996</v>
-      </c>
-      <c r="H23" s="11">
-        <f>SUM(H2:H22)</f>
-        <v>15973.070000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="G25" s="11">
+        <f>SUM(G2:G24)</f>
+        <v>16481.269999999997</v>
+      </c>
+      <c r="H25" s="11">
+        <f>SUM(H2:H24)</f>
+        <v>16402.370000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="11">
-        <f>SUM(H23,-G23)</f>
-        <v>-34.07999999999447</v>
+      <c r="G26" s="2"/>
+      <c r="H26" s="11">
+        <f>SUM(H25,-G25)</f>
+        <v>-78.899999999994179</v>
       </c>
     </row>
   </sheetData>
